--- a/appendix/mean_4ds_matthews_corrcoef.xlsx
+++ b/appendix/mean_4ds_matthews_corrcoef.xlsx
@@ -525,7 +525,7 @@
         <v>0.467</v>
       </c>
       <c r="G3" t="n">
-        <v>0.49</v>
+        <v>0.492</v>
       </c>
       <c r="H3" t="n">
         <v>0.53</v>

--- a/appendix/mean_4ds_matthews_corrcoef.xlsx
+++ b/appendix/mean_4ds_matthews_corrcoef.xlsx
@@ -569,22 +569,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.301</v>
+        <v>0.315</v>
       </c>
       <c r="D5" t="n">
-        <v>0.416</v>
+        <v>0.442</v>
       </c>
       <c r="E5" t="n">
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
       <c r="F5" t="n">
-        <v>0.52</v>
+        <v>0.542</v>
       </c>
       <c r="G5" t="n">
-        <v>0.54</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.576</v>
       </c>
     </row>
     <row r="6">
@@ -618,23 +618,23 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>classical-best-embeddings</t>
+          <t>classical-best-embed</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.301</v>
+        <v>0.315</v>
       </c>
       <c r="D7" t="n">
         <v>0.448</v>
       </c>
       <c r="E7" t="n">
-        <v>0.478</v>
+        <v>0.48</v>
       </c>
       <c r="F7" t="n">
-        <v>0.528</v>
+        <v>0.542</v>
       </c>
       <c r="G7" t="n">
         <v>0.5600000000000001</v>
@@ -653,22 +653,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.291</v>
+        <v>0.309</v>
       </c>
       <c r="D8" t="n">
-        <v>0.498</v>
+        <v>0.524</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>0.614</v>
+        <v>0.608</v>
       </c>
       <c r="G8" t="n">
-        <v>0.636</v>
+        <v>0.641</v>
       </c>
       <c r="H8" t="n">
-        <v>0.652</v>
+        <v>0.655</v>
       </c>
     </row>
     <row r="9">
@@ -678,25 +678,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.28</v>
+        <v>0.291</v>
       </c>
       <c r="C9" t="n">
-        <v>0.396</v>
+        <v>0.419</v>
       </c>
       <c r="D9" t="n">
-        <v>0.533</v>
+        <v>0.549</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.577</v>
       </c>
       <c r="F9" t="n">
-        <v>0.594</v>
+        <v>0.593</v>
       </c>
       <c r="G9" t="n">
-        <v>0.626</v>
+        <v>0.625</v>
       </c>
       <c r="H9" t="n">
-        <v>0.642</v>
+        <v>0.638</v>
       </c>
     </row>
   </sheetData>
